--- a/downloaded_files/EPES307_Tutorial-35911.xlsx
+++ b/downloaded_files/EPES307_Tutorial-35911.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أحمد سامح محمد محمد الغريب ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Sameh Mohamed Mohamed Elghareeb</x:t>
   </x:si>
   <x:si>
     <x:t>1230146</x:t>
@@ -332,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -640,7 +649,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="28.800625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="29.330625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.050625000000004" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -723,7 +732,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4168418634</x:v>
+        <x:v>45922.7915135764</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -755,7 +764,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4176098727</x:v>
+        <x:v>45907.4168418634</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -787,7 +796,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4155262732</x:v>
+        <x:v>45907.4176098727</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -819,7 +828,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4189025463</x:v>
+        <x:v>45907.4155262732</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -851,7 +860,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4342207176</x:v>
+        <x:v>45907.4189025463</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -883,7 +892,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45919.6726004977</x:v>
+        <x:v>45907.4342207176</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -915,7 +924,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4226414352</x:v>
+        <x:v>45919.6726004977</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -947,7 +956,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4173934028</x:v>
+        <x:v>45907.4226414352</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -979,7 +988,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.5338020486</x:v>
+        <x:v>45907.4173934028</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1011,7 +1020,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4166613426</x:v>
+        <x:v>45907.5338020486</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1043,7 +1052,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45907.4166613426</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1075,7 +1084,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4658447917</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1107,7 +1116,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4156379282</x:v>
+        <x:v>45907.4658447917</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1139,7 +1148,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.5846238426</x:v>
+        <x:v>45907.4156379282</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1171,7 +1180,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4171508912</x:v>
+        <x:v>45918.5846238426</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1203,7 +1212,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4172290162</x:v>
+        <x:v>45907.4171508912</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1235,7 +1244,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.7621351852</x:v>
+        <x:v>45907.4172290162</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1267,7 +1276,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.7627262384</x:v>
+        <x:v>45912.7621351852</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1299,7 +1308,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4188804745</x:v>
+        <x:v>45912.7627262384</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1327,9 +1336,11 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.4188804745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1352,16 +1363,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1378,6 +1387,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45907.4719599884</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES307_Tutorial-35911.xlsx
+++ b/downloaded_files/EPES307_Tutorial-35911.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -226,6 +226,15 @@
   </x:si>
   <x:si>
     <x:t>Yehia Tarek ibrahim ahmed nasreldin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد محمد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Mohamed Ahmed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -341,7 +350,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -641,7 +650,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1419,6 +1428,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45927.4144628472</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES307_Tutorial-35911.xlsx
+++ b/downloaded_files/EPES307_Tutorial-35911.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t>Ziyad Moataz Mohamed Mohamed Fouad Ismail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سابين حاتم محمد المهدى الحبشى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sabine Hatem Mohamed Elmahdy Elhabashy</x:t>
   </x:si>
   <x:si>
     <x:t>1220058</x:t>
@@ -350,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -650,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1061,7 +1052,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4166613426</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1093,7 +1084,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45907.4658447917</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1125,7 +1116,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4658447917</x:v>
+        <x:v>45907.4156379282</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1157,7 +1148,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4156379282</x:v>
+        <x:v>45918.5846238426</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1189,7 +1180,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.5846238426</x:v>
+        <x:v>45907.4171508912</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1221,7 +1212,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4171508912</x:v>
+        <x:v>45907.4172290162</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1253,7 +1244,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4172290162</x:v>
+        <x:v>45912.7621351852</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1285,7 +1276,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.7621351852</x:v>
+        <x:v>45912.7627262384</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1317,7 +1308,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.7627262384</x:v>
+        <x:v>45907.4188804745</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1345,11 +1336,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.4188804745</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1372,14 +1361,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1411,7 +1402,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45927.4144628472</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1428,38 +1419,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45927.4144628472</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES307_Tutorial-35911.xlsx
+++ b/downloaded_files/EPES307_Tutorial-35911.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Bellal Abdel Allah Fawzy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>روان خالد عبدالله السيد حسونه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rawan Khaled Abdullah elsayed Hassouna</x:t>
   </x:si>
   <x:si>
     <x:t>1220240</x:t>
@@ -341,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -641,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -988,7 +979,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4173934028</x:v>
+        <x:v>45907.5338020486</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1020,7 +1011,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.5338020486</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1052,7 +1043,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45907.4658447917</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1084,7 +1075,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4658447917</x:v>
+        <x:v>45907.4156379282</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1116,7 +1107,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4156379282</x:v>
+        <x:v>45918.5846238426</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1148,7 +1139,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.5846238426</x:v>
+        <x:v>45907.4171508912</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1180,7 +1171,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4171508912</x:v>
+        <x:v>45907.4172290162</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1212,7 +1203,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4172290162</x:v>
+        <x:v>45912.7621351852</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1244,7 +1235,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.7621351852</x:v>
+        <x:v>45912.7627262384</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1276,7 +1267,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.7627262384</x:v>
+        <x:v>45907.4188804745</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1304,11 +1295,9 @@
       <x:c r="C20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45907.4188804745</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1331,14 +1320,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1370,7 +1361,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45927.4144628472</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1387,38 +1378,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45927.4144628472</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES307_Tutorial-35911.xlsx
+++ b/downloaded_files/EPES307_Tutorial-35911.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,6 +87,15 @@
     <x:t>ahmed mohamed hussein</x:t>
   </x:si>
   <x:si>
+    <x:t>4230140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد نبيل احمد سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Nabil</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230164</x:t>
   </x:si>
   <x:si>
@@ -139,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Abdalluh Nasser fadel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد ابراهيم عبدالرحمن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABDELRAHMAN AHMED IBRAHIM ABDELRAHMAN</x:t>
   </x:si>
   <x:si>
     <x:t>1220259</x:t>
@@ -332,7 +350,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +650,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -641,7 +659,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.330625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.050625000000004" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.640625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -915,7 +933,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45919.6726004977</x:v>
+        <x:v>45928.9392573727</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -947,7 +965,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4226414352</x:v>
+        <x:v>45919.6726004977</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -979,7 +997,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.5338020486</x:v>
+        <x:v>45928.7033875</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1011,7 +1029,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45907.5338020486</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1043,7 +1061,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4658447917</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1075,7 +1093,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4156379282</x:v>
+        <x:v>45907.4658447917</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1107,7 +1125,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45918.5846238426</x:v>
+        <x:v>45907.4156379282</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1139,7 +1157,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4171508912</x:v>
+        <x:v>45929.055525463</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1171,7 +1189,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4172290162</x:v>
+        <x:v>45918.5846238426</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1203,7 +1221,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.7621351852</x:v>
+        <x:v>45907.4171508912</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1235,7 +1253,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.7627262384</x:v>
+        <x:v>45907.4172290162</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1267,7 +1285,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4188804745</x:v>
+        <x:v>45912.7621351852</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1295,9 +1313,11 @@
       <x:c r="C20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45912.7627262384</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1320,16 +1340,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45907.4188804745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1352,16 +1372,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45927.4144628472</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1378,6 +1396,70 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45907.4719599884</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45927.4144628472</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
